--- a/RoA Master Sheet.xlsx
+++ b/RoA Master Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwilzbach\CascadeProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\BW Code\CashDragProject\portfolio_optimizer_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0E8EA2-B059-45C9-8889-A7EE88A48A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859DAED8-4F0D-4740-AABA-5478A7FF06DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="-14325" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7665" yWindow="12810" windowWidth="27015" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,10 +549,10 @@
         <v>0.3286</v>
       </c>
       <c r="D2" s="2">
-        <v>0.22120000000000001</v>
+        <v>0.23129999999999998</v>
       </c>
       <c r="E2" s="2">
-        <v>0.2195</v>
+        <v>0.21840000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -617,10 +617,10 @@
         <v>0.43030000000000002</v>
       </c>
       <c r="D6" s="4">
-        <v>0.32290000000000002</v>
+        <v>0.34619999999999995</v>
       </c>
       <c r="E6" s="4">
-        <v>0.3508</v>
+        <v>0.32890000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="4">
-        <v>0.14530000000000001</v>
+        <v>0.14529999999999998</v>
       </c>
       <c r="D7" s="4">
-        <v>9.2299999999999993E-2</v>
+        <v>7.980000000000001E-2</v>
       </c>
       <c r="E7" s="4">
-        <v>8.1299999999999997E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -651,10 +651,10 @@
         <v>0.22789999999999999</v>
       </c>
       <c r="D8" s="4">
-        <v>0.1734</v>
+        <v>0.1804</v>
       </c>
       <c r="E8" s="4">
-        <v>0.1424</v>
+        <v>0.14940000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="4">
-        <v>4.5600000000000002E-2</v>
+        <v>4.5599999999999995E-2</v>
       </c>
       <c r="D9" s="4">
-        <v>4.5600000000000002E-2</v>
+        <v>4.5599999999999995E-2</v>
       </c>
       <c r="E9" s="4">
-        <v>4.5600000000000002E-2</v>
+        <v>4.5599999999999995E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -685,10 +685,10 @@
         <v>0.22370000000000001</v>
       </c>
       <c r="D10" s="4">
-        <v>0.1605</v>
+        <v>0.1454</v>
       </c>
       <c r="E10" s="4">
-        <v>0.23480000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,10 +699,10 @@
         <v>0.17480000000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>9.3299999999999994E-2</v>
+        <v>7.5800000000000006E-2</v>
       </c>
       <c r="E11" s="2">
-        <v>0.1255</v>
+        <v>7.3599999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -716,10 +716,10 @@
         <v>0.18690000000000001</v>
       </c>
       <c r="D12" s="4">
-        <v>9.06E-2</v>
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="E12" s="4">
-        <v>0.12479999999999999</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,10 +733,10 @@
         <v>0.21429999999999999</v>
       </c>
       <c r="D13" s="4">
-        <v>0.11749999999999999</v>
+        <v>8.6699999999999999E-2</v>
       </c>
       <c r="E13" s="4">
-        <v>0.23119999999999999</v>
+        <v>0.1067</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,10 +750,10 @@
         <v>5.4600000000000003E-2</v>
       </c>
       <c r="D14" s="4">
-        <v>5.4600000000000003E-2</v>
+        <v>-6.7500000000000004E-2</v>
       </c>
       <c r="E14" s="4">
-        <v>7.1099999999999997E-2</v>
+        <v>-5.0799999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -764,13 +764,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="4">
-        <v>3.9600000000000003E-2</v>
+        <v>3.9599999999999996E-2</v>
       </c>
       <c r="D15" s="4">
-        <v>3.9600000000000003E-2</v>
+        <v>1.9799999999999998E-2</v>
       </c>
       <c r="E15" s="4">
-        <v>-1.7399999999999999E-2</v>
+        <v>2.9300000000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -784,10 +784,10 @@
         <v>5.62E-2</v>
       </c>
       <c r="D16" s="4">
-        <v>5.62E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="E16" s="4">
-        <v>0.14360000000000001</v>
+        <v>9.8999999999999991E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -798,13 +798,13 @@
         <v>21</v>
       </c>
       <c r="C17" s="4">
-        <v>0.16439999999999999</v>
+        <v>0.16440000000000002</v>
       </c>
       <c r="D17" s="4">
-        <v>0.12509999999999999</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="E17" s="4">
-        <v>0.1421</v>
+        <v>1.3500000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -818,10 +818,10 @@
         <v>3.9699999999999999E-2</v>
       </c>
       <c r="D18" s="4">
-        <v>3.9699999999999999E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="E18" s="4">
-        <v>3.0599999999999999E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -832,10 +832,10 @@
         <v>4.41E-2</v>
       </c>
       <c r="D19" s="2">
-        <v>4.4699999999999997E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="E19" s="2">
-        <v>4.7500000000000001E-2</v>
+        <v>3.9000000000000003E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -849,10 +849,10 @@
         <v>4.41E-2</v>
       </c>
       <c r="D20" s="4">
-        <v>4.4699999999999997E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="E20" s="4">
-        <v>4.7500000000000001E-2</v>
+        <v>3.9000000000000003E-3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -863,10 +863,10 @@
         <v>0.06</v>
       </c>
       <c r="D21" s="2">
-        <v>0.06</v>
+        <v>2.9500000000000002E-2</v>
       </c>
       <c r="E21" s="2">
-        <v>0.06</v>
+        <v>2.9500000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -880,10 +880,10 @@
         <v>0.06</v>
       </c>
       <c r="D22" s="4">
-        <v>0.06</v>
+        <v>2.9500000000000002E-2</v>
       </c>
       <c r="E22" s="4">
-        <v>0.06</v>
+        <v>2.9500000000000002E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -911,10 +911,10 @@
         <v>1.37E-2</v>
       </c>
       <c r="D24" s="5">
-        <v>8.5500000000000007E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="E24" s="5">
-        <v>8.5500000000000007E-2</v>
+        <v>1.37E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -942,7 +942,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="5">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="D26" s="5">
         <v>2.5999999999999999E-2</v>

--- a/RoA Master Sheet.xlsx
+++ b/RoA Master Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\BW Code\CashDragProject\portfolio_optimizer_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859DAED8-4F0D-4740-AABA-5478A7FF06DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A422433C-21EE-49A8-8755-469FD98E94CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="12810" windowWidth="27015" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="4260" windowWidth="27015" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Strategy</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>SHORT TERM F1</t>
+  </si>
+  <si>
+    <t>TRUPS MEZZ F1</t>
   </si>
 </sst>
 </file>
@@ -509,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,47 +877,47 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C23" s="4">
         <v>0.06</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D23" s="4">
         <v>2.9500000000000002E-2</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <v>2.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="2">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="2">
         <v>7.6999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1.37E-2</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1.37E-2</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1.37E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -922,16 +925,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5">
-        <v>4.0099999999999997E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="D25" s="5">
-        <v>4.0099999999999997E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="E25" s="5">
-        <v>4.0099999999999997E-2</v>
+        <v>1.37E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -939,15 +942,32 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="5">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>4.0099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C27" s="5">
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>

--- a/RoA Master Sheet.xlsx
+++ b/RoA Master Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwilzbach\CascadeProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\BW Code\CashDragProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0E8EA2-B059-45C9-8889-A7EE88A48A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1017A4-3B73-4EC9-BCB2-ECAA46EEF2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="-14325" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29295" yWindow="7875" windowWidth="25560" windowHeight="17490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Strategy</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>SHORT TERM F1</t>
+  </si>
+  <si>
+    <t>CLO MEZZ F1</t>
+  </si>
+  <si>
+    <t>TRUPS MEZZ F1</t>
   </si>
 </sst>
 </file>
@@ -509,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:E26"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,13 +552,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>0.3286</v>
+        <v>0.44290000000000002</v>
       </c>
       <c r="D2" s="2">
-        <v>0.22120000000000001</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E2" s="2">
-        <v>0.2195</v>
+        <v>0.32519999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,10 +569,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="4">
-        <v>2.8536999999999999</v>
+        <v>1.9422999999999999</v>
       </c>
       <c r="D3" s="4">
-        <v>2.8536999999999999</v>
+        <v>1.8139000000000001</v>
       </c>
       <c r="E3" s="4">
         <v>2.8536999999999999</v>
@@ -580,13 +586,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="4">
-        <v>-0.27</v>
+        <v>-2.1600000000000001E-2</v>
       </c>
       <c r="D4" s="4">
-        <v>-0.27</v>
+        <v>-2.1600000000000001E-2</v>
       </c>
       <c r="E4" s="4">
-        <v>-0.27</v>
+        <v>-3.2899999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,14 +603,12 @@
         <v>11</v>
       </c>
       <c r="C5" s="4">
-        <v>1.7600000000000001E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="D5" s="4">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="E5" s="4">
-        <v>1.7600000000000001E-2</v>
-      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -614,13 +618,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="4">
-        <v>0.43030000000000002</v>
+        <v>0.58979999999999999</v>
       </c>
       <c r="D6" s="4">
-        <v>0.32290000000000002</v>
+        <v>0.37759999999999999</v>
       </c>
       <c r="E6" s="4">
-        <v>0.3508</v>
+        <v>0.55469999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,13 +635,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="4">
-        <v>0.14530000000000001</v>
+        <v>0.1978</v>
       </c>
       <c r="D7" s="4">
-        <v>9.2299999999999993E-2</v>
+        <v>0.1164</v>
       </c>
       <c r="E7" s="4">
-        <v>8.1299999999999997E-2</v>
+        <v>0.10920000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,13 +652,13 @@
         <v>14</v>
       </c>
       <c r="C8" s="4">
-        <v>0.22789999999999999</v>
+        <v>0.2298</v>
       </c>
       <c r="D8" s="4">
-        <v>0.1734</v>
+        <v>0.13370000000000001</v>
       </c>
       <c r="E8" s="4">
-        <v>0.1424</v>
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -670,9 +674,7 @@
       <c r="D9" s="4">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="E9" s="4">
-        <v>4.5600000000000002E-2</v>
-      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -682,13 +684,13 @@
         <v>24</v>
       </c>
       <c r="C10" s="4">
-        <v>0.22370000000000001</v>
+        <v>0.22109999999999999</v>
       </c>
       <c r="D10" s="4">
-        <v>0.1605</v>
+        <v>0.12959999999999999</v>
       </c>
       <c r="E10" s="4">
-        <v>0.23480000000000001</v>
+        <v>0.20030000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,13 +698,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="2">
-        <v>0.17480000000000001</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D11" s="2">
-        <v>9.3299999999999994E-2</v>
+        <v>0.10920000000000001</v>
       </c>
       <c r="E11" s="2">
-        <v>0.1255</v>
+        <v>0.1457</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -713,13 +715,13 @@
         <v>16</v>
       </c>
       <c r="C12" s="4">
-        <v>0.18690000000000001</v>
+        <v>0.2029</v>
       </c>
       <c r="D12" s="4">
-        <v>9.06E-2</v>
+        <v>9.3100000000000002E-2</v>
       </c>
       <c r="E12" s="4">
-        <v>0.12479999999999999</v>
+        <v>0.1172</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -730,13 +732,13 @@
         <v>17</v>
       </c>
       <c r="C13" s="4">
-        <v>0.21429999999999999</v>
+        <v>0.27510000000000001</v>
       </c>
       <c r="D13" s="4">
-        <v>0.11749999999999999</v>
+        <v>0.15909999999999999</v>
       </c>
       <c r="E13" s="4">
-        <v>0.23119999999999999</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -747,13 +749,13 @@
         <v>18</v>
       </c>
       <c r="C14" s="4">
-        <v>5.4600000000000003E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D14" s="4">
-        <v>5.4600000000000003E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="E14" s="4">
-        <v>7.1099999999999997E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -764,13 +766,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="4">
-        <v>3.9600000000000003E-2</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D15" s="4">
-        <v>3.9600000000000003E-2</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="E15" s="4">
-        <v>-1.7399999999999999E-2</v>
+        <v>0.45729999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -781,13 +783,13 @@
         <v>20</v>
       </c>
       <c r="C16" s="4">
-        <v>5.62E-2</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="D16" s="4">
-        <v>5.62E-2</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="E16" s="4">
-        <v>0.14360000000000001</v>
+        <v>0.1225</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -798,13 +800,13 @@
         <v>21</v>
       </c>
       <c r="C17" s="4">
-        <v>0.16439999999999999</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="D17" s="4">
-        <v>0.12509999999999999</v>
+        <v>0.13769999999999999</v>
       </c>
       <c r="E17" s="4">
-        <v>0.1421</v>
+        <v>0.1479</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -815,13 +817,13 @@
         <v>22</v>
       </c>
       <c r="C18" s="4">
-        <v>3.9699999999999999E-2</v>
+        <v>6.59E-2</v>
       </c>
       <c r="D18" s="4">
-        <v>3.9699999999999999E-2</v>
+        <v>6.59E-2</v>
       </c>
       <c r="E18" s="4">
-        <v>3.0599999999999999E-2</v>
+        <v>5.1900000000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -860,13 +862,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="2">
-        <v>0.06</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>0.06</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="E21" s="2">
-        <v>0.06</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -877,61 +879,61 @@
         <v>23</v>
       </c>
       <c r="C22" s="4">
-        <v>0.06</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>0.06</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="E22" s="4">
-        <v>0.06</v>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="2">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="E23" s="2">
-        <v>7.6999999999999999E-2</v>
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E23" s="4">
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D24" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E24" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1.37E-2</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="C25" s="2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="E25" s="2">
         <v>8.5500000000000007E-2</v>
-      </c>
-      <c r="E24" s="5">
-        <v>8.5500000000000007E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="5">
-        <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="D25" s="5">
-        <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="E25" s="5">
-        <v>4.0099999999999997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -939,15 +941,49 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1.37E-2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>8.5500000000000007E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4.0099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C28" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D28" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E28" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>

--- a/RoA Master Sheet.xlsx
+++ b/RoA Master Sheet.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\BW Code\CashDragProject\portfolio_optimizer_streamlit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\BW Code\CashDragProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A422433C-21EE-49A8-8755-469FD98E94CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E61E604F-8F7F-4058-A0C7-C82B71CC8051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="4260" windowWidth="27015" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1875" windowWidth="24255" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Strategy</t>
   </si>
@@ -62,6 +49,9 @@
     <t>CLO F1</t>
   </si>
   <si>
+    <t>ABS F1</t>
+  </si>
+  <si>
     <t>1.0 LEGACY ABS F1</t>
   </si>
   <si>
@@ -83,6 +73,9 @@
     <t>AIRCRAFT F1_INCOME</t>
   </si>
   <si>
+    <t>TRADABLE E NOTES F1</t>
+  </si>
+  <si>
     <t>CMBS 2.0/3.0 IG F1</t>
   </si>
   <si>
@@ -104,13 +97,16 @@
     <t>CMBS SASB F1_INCOME</t>
   </si>
   <si>
+    <t>SHORT TERM F1</t>
+  </si>
+  <si>
     <t>CLO AAA ETF F1</t>
   </si>
   <si>
-    <t>TRADABLE E NOTES F1</t>
-  </si>
-  <si>
-    <t>ABS F1</t>
+    <t>CLO MEZZ F1</t>
+  </si>
+  <si>
+    <t>TRUPS MEZZ F1</t>
   </si>
   <si>
     <t>MEZZ HOME IMPROVEMENT F1</t>
@@ -120,19 +116,16 @@
   </si>
   <si>
     <t>SENIOR MPL</t>
-  </si>
-  <si>
-    <t>SHORT TERM F1</t>
-  </si>
-  <si>
-    <t>TRUPS MEZZ F1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,26 +141,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -194,23 +174,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,19 +487,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C2" sqref="C2:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="3" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -549,149 +520,145 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>0.3286</v>
+        <v>0.288964</v>
       </c>
       <c r="D2" s="2">
-        <v>0.23129999999999998</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E2" s="2">
-        <v>0.21840000000000001</v>
+        <v>0.32519999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.9422999999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.8139000000000001</v>
+      </c>
+      <c r="E3" s="2">
         <v>2.8536999999999999</v>
       </c>
-      <c r="D3" s="4">
-        <v>2.8536999999999999</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2.8536999999999999</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-0.27</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-0.27</v>
-      </c>
-      <c r="E4" s="4">
-        <v>-0.27</v>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-2.1600000000000001E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-2.1600000000000001E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-3.2899999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.77E-2</v>
+      </c>
+      <c r="D5" s="2">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="D5" s="4">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1.7600000000000001E-2</v>
-      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.43030000000000002</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.34619999999999995</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.32890000000000003</v>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.58979999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.37759999999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.55469999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.14529999999999998</v>
-      </c>
-      <c r="D7" s="4">
-        <v>7.980000000000001E-2</v>
-      </c>
-      <c r="E7" s="4">
-        <v>9.2600000000000002E-2</v>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.1978</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.1164</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.10920000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.22789999999999999</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.1804</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.14940000000000001</v>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.2298</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.13370000000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4.5599999999999995E-2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4.5599999999999995E-2</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4.5599999999999995E-2</v>
-      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.22370000000000001</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.1454</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.19500000000000001</v>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.20030000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,132 +666,132 @@
         <v>6</v>
       </c>
       <c r="C11" s="2">
-        <v>0.17480000000000001</v>
+        <v>0.18969</v>
       </c>
       <c r="D11" s="2">
-        <v>7.5800000000000006E-2</v>
+        <v>0.10920000000000001</v>
       </c>
       <c r="E11" s="2">
-        <v>7.3599999999999999E-2</v>
+        <v>0.1457</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.18690000000000001</v>
-      </c>
-      <c r="D12" s="4">
-        <v>4.8499999999999995E-2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4.9000000000000002E-2</v>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.2029</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9.3100000000000002E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.1172</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.21429999999999999</v>
-      </c>
-      <c r="D13" s="4">
-        <v>8.6699999999999999E-2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.1067</v>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.27510000000000001</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.15909999999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.316</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4">
-        <v>5.4600000000000003E-2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>-6.7500000000000004E-2</v>
-      </c>
-      <c r="E14" s="4">
-        <v>-5.0799999999999998E-2</v>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3.9599999999999996E-2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1.9799999999999998E-2</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2.9300000000000003E-2</v>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.45729999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="4">
-        <v>5.62E-2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="E16" s="4">
-        <v>9.8999999999999991E-3</v>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.1225</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.16440000000000002</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1.3500000000000002E-2</v>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.1479</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="4">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1.44E-2</v>
-      </c>
-      <c r="E18" s="4">
-        <v>6.8999999999999999E-3</v>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6.59E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6.59E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5.1900000000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,27 +802,27 @@
         <v>4.41E-2</v>
       </c>
       <c r="D19" s="2">
-        <v>4.5999999999999999E-3</v>
+        <v>4.4699999999999997E-2</v>
       </c>
       <c r="E19" s="2">
-        <v>3.9000000000000003E-3</v>
+        <v>4.7500000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2">
         <v>4.41E-2</v>
       </c>
-      <c r="D20" s="4">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="E20" s="4">
-        <v>3.9000000000000003E-3</v>
+      <c r="D20" s="2">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.7500000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -863,111 +830,128 @@
         <v>8</v>
       </c>
       <c r="C21" s="2">
-        <v>0.06</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>2.9500000000000002E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="E21" s="2">
-        <v>2.9500000000000002E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>30</v>
+      <c r="B22" t="s">
+        <v>26</v>
       </c>
       <c r="C22" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="E22" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2.9500000000000002E-2</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2.9500000000000002E-2</v>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
       </c>
       <c r="C24" s="2">
-        <v>7.6999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>7.6999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E24" s="2">
-        <v>7.6999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2">
+        <v>7.9908999999999994E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>8.5500000000000007E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2">
         <v>1.37E-2</v>
       </c>
-      <c r="D25" s="5">
-        <v>1.37E-2</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1.37E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="D26" s="2">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>8.5500000000000007E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="2">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="2">
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="5">
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="D27" s="5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E27" s="5">
+      <c r="D28" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E28" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
